--- a/experimental_data/GEC_aging/Marchesini1988.xlsx
+++ b/experimental_data/GEC_aging/Marchesini1988.xlsx
@@ -5,17 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="246" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="188" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Marchesini1988" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="117">
   <si>
     <t>Marchesini1988 – Galactose Elimination Capacity and Liver Volume in Aging Man</t>
   </si>
@@ -204,6 +204,168 @@
   </si>
   <si>
     <t>s50</t>
+  </si>
+  <si>
+    <t>Galactose elimination test</t>
+  </si>
+  <si>
+    <t>body weight [kg]</t>
+  </si>
+  <si>
+    <t>body weight [kg] SD</t>
+  </si>
+  <si>
+    <t>body height [cm]</t>
+  </si>
+  <si>
+    <t>body height [cm] SD</t>
+  </si>
+  <si>
+    <t>albumin level [gm/dl]</t>
+  </si>
+  <si>
+    <t>albumin level [gm/dl] SD</t>
+  </si>
+  <si>
+    <t>cholesterol level [mmoles/liter]</t>
+  </si>
+  <si>
+    <t>cholesterol level [mmoles/liter] SD</t>
+  </si>
+  <si>
+    <t>prothrombin activity [%]</t>
+  </si>
+  <si>
+    <t>prothrombin activity [%] SD</t>
+  </si>
+  <si>
+    <t>total bilirubin [µmoles/liter]</t>
+  </si>
+  <si>
+    <t>total bilirubin [µmoles/liter] SD</t>
+  </si>
+  <si>
+    <t>volume of the liver [unit]</t>
+  </si>
+  <si>
+    <t>volume of the liver [unit] SD</t>
+  </si>
+  <si>
+    <t>GEC [mmoles/min]</t>
+  </si>
+  <si>
+    <t>GEC [mmoles/min] SD</t>
+  </si>
+  <si>
+    <t>Volume of distribution [liters]</t>
+  </si>
+  <si>
+    <t>Volume of distribution [liters] SD</t>
+  </si>
+  <si>
+    <t>Concentration 0 min [mmoles/liter]</t>
+  </si>
+  <si>
+    <t>Concentration 0 min [mmoles/liter] SD</t>
+  </si>
+  <si>
+    <t>Concentration 45 min [mmoles/liter]</t>
+  </si>
+  <si>
+    <t>Concentration 45 min [mmoles/liter] SD</t>
+  </si>
+  <si>
+    <t>Galactose elimination/unit of volume [µmoles/minxunit]</t>
+  </si>
+  <si>
+    <t>Galactose elimination/unit of volume [µmoles/minxunit] SD</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>bodyweight</t>
+  </si>
+  <si>
+    <t>bodyweightSD</t>
+  </si>
+  <si>
+    <t>bodyheight</t>
+  </si>
+  <si>
+    <t>bodyheightSD</t>
+  </si>
+  <si>
+    <t>albumin</t>
+  </si>
+  <si>
+    <t>albuminSD</t>
+  </si>
+  <si>
+    <t>cholesterol</t>
+  </si>
+  <si>
+    <t>cholesterolSD</t>
+  </si>
+  <si>
+    <t>prothrombin</t>
+  </si>
+  <si>
+    <t>prothrombinSD</t>
+  </si>
+  <si>
+    <t>bilirubin</t>
+  </si>
+  <si>
+    <t>bilirubinSD</t>
+  </si>
+  <si>
+    <t>volLiver</t>
+  </si>
+  <si>
+    <t>volLiverSD</t>
+  </si>
+  <si>
+    <t>GECSD</t>
+  </si>
+  <si>
+    <t>volDist</t>
+  </si>
+  <si>
+    <t>volDistSD</t>
+  </si>
+  <si>
+    <t>gal0</t>
+  </si>
+  <si>
+    <t>gal0SD</t>
+  </si>
+  <si>
+    <t>gal45</t>
+  </si>
+  <si>
+    <t>gal45SD</t>
+  </si>
+  <si>
+    <t>galVol</t>
+  </si>
+  <si>
+    <t>galVolSD</t>
+  </si>
+  <si>
+    <t>&lt;50</t>
+  </si>
+  <si>
+    <t>51-60</t>
+  </si>
+  <si>
+    <t>61-70</t>
+  </si>
+  <si>
+    <t>71-80</t>
+  </si>
+  <si>
+    <t>&gt;81</t>
   </si>
 </sst>
 </file>
@@ -213,7 +375,7 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -241,12 +403,25 @@
       <family val="2"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,7 +443,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -306,7 +493,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -332,6 +519,18 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="6" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -369,7 +568,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -382,7 +581,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -393,7 +592,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -407,7 +606,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -421,7 +620,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$3</c:f>
+              <c:f>Marchesini1988!$B$3:$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -443,7 +642,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$53</c:f>
+              <c:f>Marchesini1988!$A$4:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -602,7 +801,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$53</c:f>
+              <c:f>Marchesini1988!$B$4:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -760,11 +959,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="12880603"/>
-        <c:axId val="93969960"/>
+        <c:axId val="19239343"/>
+        <c:axId val="49981197"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="12880603"/>
+        <c:axId val="19239343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -799,11 +998,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="93969960"/>
+        <c:crossAx val="49981197"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93969960"/>
+        <c:axId val="49981197"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -838,7 +1037,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="12880603"/>
+        <c:crossAx val="19239343"/>
         <c:crosses val="autoZero"/>
         <c:majorUnit val="1"/>
       </c:valAx>
@@ -864,7 +1063,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -878,7 +1077,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$3</c:f>
+              <c:f>Marchesini1988!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -900,7 +1099,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$56</c:f>
+              <c:f>Marchesini1988!$C$4:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="53"/>
@@ -1068,7 +1267,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$56</c:f>
+              <c:f>Marchesini1988!$D$4:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="53"/>
@@ -1235,11 +1434,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="98251083"/>
-        <c:axId val="88554719"/>
+        <c:axId val="89974854"/>
+        <c:axId val="5604808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98251083"/>
+        <c:axId val="89974854"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -1274,11 +1473,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="88554719"/>
+        <c:crossAx val="5604808"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88554719"/>
+        <c:axId val="5604808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="140"/>
@@ -1314,7 +1513,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="98251083"/>
+        <c:crossAx val="89974854"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="20"/>
       </c:valAx>
@@ -1340,7 +1539,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1354,7 +1553,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$3</c:f>
+              <c:f>Marchesini1988!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1376,7 +1575,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$53</c:f>
+              <c:f>Marchesini1988!$E$4:$E$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -1535,7 +1734,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$53</c:f>
+              <c:f>Marchesini1988!$F$4:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -1693,11 +1892,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="46919601"/>
-        <c:axId val="75435727"/>
+        <c:axId val="28469018"/>
+        <c:axId val="68685202"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46919601"/>
+        <c:axId val="28469018"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="130"/>
@@ -1733,12 +1932,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="75435727"/>
+        <c:crossAx val="68685202"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75435727"/>
+        <c:axId val="68685202"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1774,7 +1973,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="46919601"/>
+        <c:crossAx val="28469018"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
@@ -1804,16 +2003,16 @@
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>782280</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>94320</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>210960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>526320</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>651240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>118440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1821,7 +2020,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7804440" y="385920"/>
+        <a:off x="5491080" y="549720"/>
         <a:ext cx="3808080" cy="2062800"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1834,16 +2033,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>792720</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104760</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>417600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542520</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1858,7 +2057,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7814880" y="2635560"/>
+          <a:off x="5501520" y="2799360"/>
           <a:ext cx="3688920" cy="2146680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1873,16 +2072,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>802440</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>50040</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114480</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>448920</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1897,7 +2096,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7824600" y="7000560"/>
+          <a:off x="5511240" y="7164360"/>
           <a:ext cx="3585600" cy="2032920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1912,16 +2111,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>740880</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>52920</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>484920</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609840</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1929,7 +2128,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7763040" y="4797000"/>
+        <a:off x="5449680" y="4960800"/>
         <a:ext cx="3808080" cy="2062800"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1942,16 +2141,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>32040</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>156960</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>528120</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>653040</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1966,7 +2165,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7867080" y="11498760"/>
+          <a:off x="5553720" y="11662560"/>
           <a:ext cx="3747240" cy="2279880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1981,16 +2180,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>783000</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95040</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>636840</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>761760</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>50040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1998,7 +2197,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7805160" y="9266400"/>
+        <a:off x="5491800" y="9430200"/>
         <a:ext cx="3917880" cy="2060280"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2017,10 +2216,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:Y130"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A59" view="normal" windowProtection="false" workbookViewId="0" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100">
-      <selection activeCell="A60" activeCellId="0" pane="topLeft" sqref="A60:F110"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="C82" view="normal" windowProtection="false" workbookViewId="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100">
+      <selection activeCell="C120" activeCellId="0" pane="topLeft" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2028,7 +2227,9 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8112244897959"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.35" outlineLevel="0" r="1" s="1">
@@ -2069,6 +2270,17 @@
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
@@ -4319,6 +4531,569 @@
         <v>64.326195</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="112">
+      <c r="P112" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q112" s="7"/>
+      <c r="R112" s="7"/>
+      <c r="S112" s="7"/>
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
+      <c r="V112" s="7"/>
+      <c r="W112" s="7"/>
+      <c r="X112" s="7"/>
+      <c r="Y112" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="56.7" outlineLevel="0" r="113">
+      <c r="A113" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J113" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K113" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M113" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N113" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O113" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P113" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q113" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="R113" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S113" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="T113" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U113" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="V113" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="W113" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="X113" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y113" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="114">
+      <c r="A114" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K114" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L114" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M114" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N114" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O114" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="P114" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q114" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="R114" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="S114" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="T114" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="U114" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="V114" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W114" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X114" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y114" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="115">
+      <c r="A115" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="I115" s="0" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="J115" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="K115" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L115" s="0" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="M115" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N115" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="O115" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P115" s="0" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q115" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="R115" s="0" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="S115" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T115" s="0" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="U115" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="V115" s="0" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W115" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="X115" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y115" s="0" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="116">
+      <c r="A116" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H116" s="0" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="I116" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J116" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="K116" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L116" s="0" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="M116" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N116" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="O116" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="P116" s="0" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Q116" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R116" s="0" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="S116" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="T116" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U116" s="0" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V116" s="0" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="W116" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="X116" s="0" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="Y116" s="0" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="117">
+      <c r="A117" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="I117" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J117" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="K117" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L117" s="0" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M117" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N117" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="O117" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="P117" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q117" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R117" s="0" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="S117" s="0" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="T117" s="0" t="n">
+        <v>8.28</v>
+      </c>
+      <c r="U117" s="0" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V117" s="0" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="W117" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="X117" s="0" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="Y117" s="0" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="118">
+      <c r="A118" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="G118" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="I118" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J118" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="K118" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="L118" s="0" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="M118" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N118" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="O118" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P118" s="0" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="Q118" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="R118" s="0" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="S118" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="T118" s="0" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="U118" s="0" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V118" s="0" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W118" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X118" s="0" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="Y118" s="0" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="119">
+      <c r="A119" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="I119" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="J119" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="K119" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L119" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M119" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N119" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="O119" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="P119" s="0" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q119" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R119" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="S119" s="0" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T119" s="0" t="n">
+        <v>9.05</v>
+      </c>
+      <c r="U119" s="0" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V119" s="0" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W119" s="0" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="X119" s="0" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="Y119" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
